--- a/CCFlow/DataUser/FrmOfficeTemplate/CY_6501.xlsx
+++ b/CCFlow/DataUser/FrmOfficeTemplate/CY_6501.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="20340" windowHeight="7650"/>
@@ -12,11 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="Addr">Sheet1!$B$10</definedName>
+    <definedName name="BH">Sheet1!$A$8</definedName>
     <definedName name="BiaoShi">Sheet1!$B$2</definedName>
+    <definedName name="CY_6501Dtl">Sheet1!$A$8:$D$15</definedName>
     <definedName name="CY_FHR">MetaData!$D$1:$D$7</definedName>
     <definedName name="CYR">Sheet1!$B$5</definedName>
     <definedName name="DTOfCY">Sheet1!$D$2</definedName>
     <definedName name="FHR">Sheet1!$D$5</definedName>
+    <definedName name="FK_FXFF">Sheet1!$C$10</definedName>
     <definedName name="FK_SheBeiCaiYang">Sheet1!$D$6</definedName>
     <definedName name="FK_SheBeiCaiYangType">Sheet1!$B$6</definedName>
     <definedName name="IncAddr">Sheet1!$D$4</definedName>
@@ -27,6 +31,7 @@
     <definedName name="Linker">Sheet1!$F$3</definedName>
     <definedName name="Port_CYFHR">MetaData!$D$1:$D$4</definedName>
     <definedName name="Port_EmpCY">MetaData!$C$1:$C$8</definedName>
+    <definedName name="Rec">Sheet1!$D$9</definedName>
     <definedName name="SHR">Sheet1!$F$5</definedName>
     <definedName name="Tel">Sheet1!$B$4</definedName>
     <definedName name="TianQi">Sheet1!$F$2</definedName>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t xml:space="preserve">污染源废水监测采样记录  </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +124,14 @@
   </si>
   <si>
     <t>Port_CYFHR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试合并后的表头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -207,13 +220,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -240,6 +377,39 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A8" sqref="A8:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -663,7 +833,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -675,16 +845,14 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3"/>
+      <c r="B8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -692,10 +860,12 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -703,10 +873,14 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="19"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -714,10 +888,10 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="3"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -725,10 +899,10 @@
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -736,10 +910,10 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="3"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -747,21 +921,21 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="3"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -889,10 +1063,35 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D9:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
